--- a/sprint2/3°T.i/TI-Aula5-Backlog-TermoTech.xlsx
+++ b/sprint2/3°T.i/TI-Aula5-Backlog-TermoTech.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheus\Documents\BandTec 2021\Tecnologia da Informação - Tiago\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheus\Desktop\Git - Sprint2\TermoTech\sprint2\3°T.i\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -164,9 +164,6 @@
     <t>Sprint</t>
   </si>
   <si>
-    <t xml:space="preserve">Sprint2 - 15/03 - 14/04 </t>
-  </si>
-  <si>
     <t xml:space="preserve">Sprint1 - 08/02 - 12/03 </t>
   </si>
   <si>
@@ -204,6 +201,9 @@
   </si>
   <si>
     <t>TERMO-TECH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint2 - 15/03 - 22/04 </t>
   </si>
 </sst>
 </file>
@@ -621,7 +621,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,7 +657,7 @@
         <v>44</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
@@ -679,16 +679,16 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -708,16 +708,16 @@
         <v>2</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -737,16 +737,16 @@
         <v>3</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -766,16 +766,16 @@
         <v>4</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -795,16 +795,16 @@
         <v>5</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I6" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -824,7 +824,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -844,7 +844,7 @@
         <v>7</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -864,7 +864,7 @@
         <v>8</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -884,7 +884,7 @@
         <v>9</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -904,7 +904,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -924,7 +924,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -944,7 +944,7 @@
         <v>12</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -964,7 +964,7 @@
         <v>13</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -984,7 +984,7 @@
         <v>14</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1004,7 +1004,7 @@
         <v>15</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1024,7 +1024,7 @@
         <v>16</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1044,7 +1044,7 @@
         <v>17</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1064,7 +1064,7 @@
         <v>18</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
